--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2a8cf36d1da8885/Documentos/Uni_Dados/stats_MsC/research-stats-tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="8_{6521C77C-C676-4655-8144-5321D5B08050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34F16AA8-606C-4AEC-B5D8-F3718E3A9CFD}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{6521C77C-C676-4655-8144-5321D5B08050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92C6D93-01F4-4D9F-A394-3090510C6C9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0486C34A-FDA2-4869-AFE3-2FC8B1AB73F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0486C34A-FDA2-4869-AFE3-2FC8B1AB73F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Recall 0 - I</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Recall 1 - B</t>
-  </si>
-  <si>
-    <t>Precisão 0 - I</t>
-  </si>
-  <si>
-    <t>Precisão 0 - B</t>
-  </si>
-  <si>
-    <t>Precisão 1 - B</t>
-  </si>
-  <si>
-    <t>Precisão 1 - I</t>
   </si>
   <si>
     <t>F1-Score 0 - I</t>
@@ -74,25 +62,34 @@
     <t>F1-Score 1 - B</t>
   </si>
   <si>
-    <t>ROC AUC -I</t>
+    <t>Precision 0 - I</t>
   </si>
   <si>
-    <t>ROC-AUC-B</t>
+    <t>Precision 0 - B</t>
   </si>
   <si>
-    <t>PR-AUC-I</t>
+    <t>Precision 1 - I</t>
   </si>
   <si>
-    <t>PR-AUC-B</t>
+    <t>Precision 1 - B</t>
   </si>
   <si>
-    <t>Classe 1</t>
+    <t>Acc-I</t>
   </si>
   <si>
-    <t>Acurácia I</t>
+    <t>Acc-B</t>
   </si>
   <si>
-    <t>Acurácia B</t>
+    <t>ROC-I</t>
+  </si>
+  <si>
+    <t>ROC-B</t>
+  </si>
+  <si>
+    <t>PR-I</t>
+  </si>
+  <si>
+    <t>PR-B</t>
   </si>
 </sst>
 </file>
@@ -588,7 +585,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,10 +614,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -678,6 +671,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,28 +974,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35C9CB6-E72B-4173-8082-B1F87BE28061}">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1013,30 +1007,30 @@
     <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -1045,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1063,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0.79745020335801398</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>0.83183183183183096</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.39474895545641198</v>
       </c>
@@ -1181,7 +1175,7 @@
         <v>0.69039145907473298</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.97052133284150899</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>0.73484848484848397</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0.77046614100185495</v>
       </c>
@@ -1292,18 +1286,8 @@
       <c r="R5" s="4">
         <v>0.84129429892141705</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="W5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.222017439556084</v>
       </c>
@@ -1359,7 +1343,7 @@
         <v>0.68971061093247499</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.94077814759554601</v>
       </c>
@@ -1415,7 +1399,7 @@
         <v>0.62859524802000799</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.85149305555555499</v>
       </c>
@@ -1471,7 +1455,7 @@
         <v>0.66759195003469796</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.72674603174603103</v>
       </c>
@@ -1527,7 +1511,7 @@
         <v>0.30466830466830402</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.954096605329949</v>
       </c>
@@ -1583,7 +1567,7 @@
         <v>0.480253878702397</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.95847222222222195</v>
       </c>
@@ -1639,7 +1623,7 @@
         <v>0.62809917355371803</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.97062084257206205</v>
       </c>
@@ -1695,7 +1679,7 @@
         <v>0.66252587991718404</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>0.94189029202841301</v>
       </c>
@@ -1751,7 +1735,7 @@
         <v>0.71936758893280595</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>0.975720789074355</v>
       </c>
@@ -1807,7 +1791,7 @@
         <v>0.82073434125269895</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.972943290734824</v>
       </c>
@@ -1863,7 +1847,7 @@
         <v>0.62078651685393205</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.985929794023788</v>
       </c>
@@ -2240,9 +2224,6 @@
       <c r="H44" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="W5:AB5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>